--- a/biology/Botanique/Parc_urbain_de_Villeneuve-d'Ascq/Parc_urbain_de_Villeneuve-d'Ascq.xlsx
+++ b/biology/Botanique/Parc_urbain_de_Villeneuve-d'Ascq/Parc_urbain_de_Villeneuve-d'Ascq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_urbain_de_Villeneuve-d%27Ascq</t>
+          <t>Parc_urbain_de_Villeneuve-d'Ascq</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc urbain est l'un des parcs de la ville de Villeneuve-d'Ascq, d'une superficie de 45 ha y compris la parcelle du "Parc urbain d'Annapes" inscrit depuis 2000 à l'Inventaire supplémentaire des Monuments historiques[1].
+Le parc urbain est l'un des parcs de la ville de Villeneuve-d'Ascq, d'une superficie de 45 ha y compris la parcelle du "Parc urbain d'Annapes" inscrit depuis 2000 à l'Inventaire supplémentaire des Monuments historiques.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_urbain_de_Villeneuve-d%27Ascq</t>
+          <t>Parc_urbain_de_Villeneuve-d'Ascq</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc urbain, est situé au centre de la ville de Villeneuve-d'Ascq (entre les quartiers du Château, de Brigode et de la Cousinerie), entre les moulins, le musée d'Art moderne et le Parc du Héron. Il abrite les lacs Saint Jean, de Canteleu et de Quiquempois (près de la motte féodale Quiquempois) et de nombreux espaces verts. Le lac Saint Jean abrite un grand jet d'eau visible du Boulevard du Breucq.
 Le parc a été aménagé par le paysagiste Jean Challet.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_urbain_de_Villeneuve-d%27Ascq</t>
+          <t>Parc_urbain_de_Villeneuve-d'Ascq</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les terres du parc urbain étaient autrefois appelées le « Bois d'Annappes »[2].
-C'est dans le parc qu'était située la motte féodale de Quiquempois, où Gilbert de Bourghelles fit construire son manoir de Quiquempois vers 1200. Les seigneurs de Bourghelles-Quincampois étaient des barons du comté de Flandre[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les terres du parc urbain étaient autrefois appelées le « Bois d'Annappes ».
+C'est dans le parc qu'était située la motte féodale de Quiquempois, où Gilbert de Bourghelles fit construire son manoir de Quiquempois vers 1200. Les seigneurs de Bourghelles-Quincampois étaient des barons du comté de Flandre.
 En 1981, la commune décide d’assumer l’entretien du Parc urbain.
 </t>
         </is>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_urbain_de_Villeneuve-d%27Ascq</t>
+          <t>Parc_urbain_de_Villeneuve-d'Ascq</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,12 +595,14 @@
           <t>Loisirs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est un endroit de promenade apprécié pour les marcheurs et les cyclistes. De nombreuses personnes viennent s'y détendre le weekend, et les bords du lac sont un endroit privilégié pour bronzer ou lire. 
 On y trouve également une aire de jeux dans la plaine Saint-Jean, des manèges et un poney-club.
 Le printemps et l'été, on peut faire du pédalo sur le Lac de Canteleu.
-La plaine Canteleu est un espace ouvert à de nombreuses manifestations notamment les feux d'artifice du 14 juillet, les montgolfiades de Lille, et la course de la Cervoise du parc du Héron [4]
+La plaine Canteleu est un espace ouvert à de nombreuses manifestations notamment les feux d'artifice du 14 juillet, les montgolfiades de Lille, et la course de la Cervoise du parc du Héron 
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parc_urbain_de_Villeneuve-d%27Ascq</t>
+          <t>Parc_urbain_de_Villeneuve-d'Ascq</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lac Saint Jean accueille de nombreuses oies.
 </t>
